--- a/Lifestable_POP_BIOL.xlsx
+++ b/Lifestable_POP_BIOL.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtremblay/Dropbox/GitHub_Dropbox_Drive/GitHub/Ecologia_de_Poblacion_Humacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2785E49C-944A-5D4D-976D-1DF0136F6ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A64BE99-FE42-6E40-83C4-41C7B4956040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="9760" windowWidth="27820" windowHeight="16940" xr2:uid="{D6681404-A940-6548-8E59-08F806BF7B16}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="21720" windowHeight="17500" xr2:uid="{D6681404-A940-6548-8E59-08F806BF7B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -551,7 +551,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H14" si="3">E5/E4</f>
+        <f t="shared" ref="H4:H13" si="3">E5/E4</f>
         <v>0.97979797979797978</v>
       </c>
       <c r="I4" s="1">
@@ -559,7 +559,7 @@
         <v>0.5</v>
       </c>
       <c r="J4" s="1">
-        <f>G5/G4</f>
+        <f t="shared" ref="J4:J13" si="5">G5/G4</f>
         <v>0.3</v>
       </c>
       <c r="K4" s="1">
@@ -601,7 +601,7 @@
         <v>0.5</v>
       </c>
       <c r="J5" s="1">
-        <f>G6/G5</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="K5" s="1">
@@ -643,7 +643,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="1">
-        <f>G7/G6</f>
+        <f t="shared" si="5"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="K6" s="1">
@@ -685,7 +685,7 @@
         <v>0.5</v>
       </c>
       <c r="J7" s="1">
-        <f>G8/G7</f>
+        <f t="shared" si="5"/>
         <v>0.94444444444444453</v>
       </c>
       <c r="K7" s="1">
@@ -727,7 +727,7 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="1">
-        <f>G9/G8</f>
+        <f t="shared" si="5"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="K8" s="1">
@@ -769,7 +769,7 @@
         <v>0.5</v>
       </c>
       <c r="J9" s="1">
-        <f>G10/G9</f>
+        <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
       <c r="K9" s="1">
@@ -811,7 +811,7 @@
         <v>0.5</v>
       </c>
       <c r="J10" s="1">
-        <f>G11/G10</f>
+        <f t="shared" si="5"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="K10" s="1">
@@ -853,7 +853,7 @@
         <v>0.5</v>
       </c>
       <c r="J11" s="1">
-        <f>G12/G11</f>
+        <f t="shared" si="5"/>
         <v>0.92857142857142849</v>
       </c>
       <c r="K11" s="1">
@@ -895,7 +895,7 @@
         <v>0.5</v>
       </c>
       <c r="J12" s="1">
-        <f>G13/G12</f>
+        <f t="shared" si="5"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="K12" s="1">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <f>G14/G13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
